--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IP-Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Draft" sheetId="2" r:id="rId2"/>
     <sheet name="IP-Planning (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="IP-Planning - For Ubuntu" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="68">
   <si>
     <t>Controller</t>
   </si>
@@ -219,6 +220,26 @@
     <t>eno33554952
 (Provider Network
 Host and VMs access Internet)</t>
+  </si>
+  <si>
+    <t>ens3
+(Management + API network)</t>
+  </si>
+  <si>
+    <t>ens4
+(Provider Network
+Host and VMs access Internet)</t>
+  </si>
+  <si>
+    <t>ens5
+(Provider Network
+Host and VMs access Internet)</t>
+  </si>
+  <si>
+    <t>10.10.20.30</t>
+  </si>
+  <si>
+    <t>10.10.20.31</t>
   </si>
 </sst>
 </file>
@@ -588,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,6 +720,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,16 +1086,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
@@ -1114,7 +1144,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -1140,7 +1170,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="41"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1194,7 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="42"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1218,7 @@
       </c>
     </row>
     <row r="10" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1214,7 +1244,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="39"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
@@ -1238,7 +1268,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="39"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1340,7 @@
       </c>
     </row>
     <row r="15" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="46" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1336,7 +1366,7 @@
       </c>
     </row>
     <row r="16" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="44"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
@@ -1360,7 +1390,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="45"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
@@ -1462,14 +1492,14 @@
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
@@ -1532,14 +1562,14 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
@@ -1602,14 +1632,14 @@
       </c>
     </row>
     <row r="14" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
@@ -1674,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1692,17 +1722,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="3:11" ht="33" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
@@ -1759,7 +1789,7 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="43" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -1788,7 +1818,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="41"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
@@ -1815,7 +1845,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="42"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
@@ -1842,7 +1872,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1871,7 +1901,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="39"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1928,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="39"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
@@ -2049,4 +2079,500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="3:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="C5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="44"/>
+      <c r="D8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="45"/>
+      <c r="D9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="42"/>
+      <c r="D11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="42"/>
+      <c r="D12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="42"/>
+      <c r="D14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="42"/>
+      <c r="D15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="47"/>
+      <c r="D19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="48"/>
+      <c r="D20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C18:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="77">
   <si>
     <t>Controller</t>
   </si>
@@ -222,24 +222,49 @@
 Host and VMs access Internet)</t>
   </si>
   <si>
+    <t>ens2
+(Management + API network)</t>
+  </si>
+  <si>
+    <t>ens4
+(DATA VMs)</t>
+  </si>
+  <si>
     <t>ens3
-(Management + API network)</t>
-  </si>
-  <si>
-    <t>ens4
-(Provider Network
-Host and VMs access Internet)</t>
-  </si>
-  <si>
-    <t>ens5
-(Provider Network
-Host and VMs access Internet)</t>
-  </si>
-  <si>
-    <t>10.10.20.30</t>
-  </si>
-  <si>
-    <t>10.10.20.31</t>
+(Provider Network)</t>
+  </si>
+  <si>
+    <t>controller1</t>
+  </si>
+  <si>
+    <t>10.10.10.50</t>
+  </si>
+  <si>
+    <t>172.16.69.50</t>
+  </si>
+  <si>
+    <t>10.10.10.61</t>
+  </si>
+  <si>
+    <t>10.10.10.62</t>
+  </si>
+  <si>
+    <t>compute2</t>
+  </si>
+  <si>
+    <t>172.16.69.62</t>
+  </si>
+  <si>
+    <t>10.10.20.62</t>
+  </si>
+  <si>
+    <t>172.16.69.61</t>
+  </si>
+  <si>
+    <t>10.10.20.61</t>
+  </si>
+  <si>
+    <t>CTL1</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2111,7 @@
   <dimension ref="C4:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2149,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>37</v>
@@ -2151,7 +2176,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>42</v>
@@ -2166,7 +2191,7 @@
         <v>44</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
@@ -2180,10 +2205,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>14</v>
@@ -2195,7 +2220,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
@@ -2233,28 +2258,16 @@
       <c r="E9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>2</v>
-      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>10</v>
@@ -2263,10 +2276,10 @@
         <v>46</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>49</v>
@@ -2278,7 +2291,7 @@
         <v>51</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
@@ -2337,23 +2350,21 @@
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="41"/>
-      <c r="F13" s="35" t="s">
-        <v>66</v>
-      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="35" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
@@ -2362,15 +2373,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="41"/>
-      <c r="F14" s="36" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="23"/>
       <c r="G14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="36" t="s">
         <v>12</v>
       </c>
@@ -2381,18 +2390,12 @@
         <v>4</v>
       </c>
       <c r="E15" s="41"/>
-      <c r="F15" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="37" t="s">
-        <v>2</v>
-      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" s="39" t="s">
@@ -2402,10 +2405,10 @@
       <c r="E16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="18" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="18" t="s">
@@ -2417,7 +2420,7 @@
       <c r="J16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2429,10 +2432,10 @@
       <c r="E17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="18" t="s">
@@ -2444,7 +2447,7 @@
       <c r="J17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2458,10 +2461,10 @@
       <c r="E18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="26" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="26" t="s">
@@ -2473,7 +2476,7 @@
       <c r="J18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2485,24 +2488,12 @@
       <c r="E19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>2</v>
-      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="48"/>
@@ -2512,24 +2503,12 @@
       <c r="E20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>2</v>
-      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
